--- a/public/sales_report.xlsx
+++ b/public/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Order ID</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Net Banking</t>
   </si>
   <si>
-    <t>1730</t>
+    <t>1200</t>
   </si>
   <si>
     <t>FIRSTBUY</t>
@@ -64,13 +64,25 @@
     <t>#17102485701339655</t>
   </si>
   <si>
+    <t>420.75</t>
+  </si>
+  <si>
     <t>#17102490493858128</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>841.5</t>
+    <t>#17103060589645336</t>
+  </si>
+  <si>
+    <t>13/03/2024</t>
+  </si>
+  <si>
+    <t>700.75</t>
+  </si>
+  <si>
+    <t>#17103343526631515</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,12 +567,12 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -569,10 +581,44 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
